--- a/external/datafev/outputs/service_fleet_output.xlsx
+++ b/external/datafev/outputs/service_fleet_output.xlsx
@@ -63,10 +63,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,310 +442,864 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ev1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ev2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ev3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ev4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ev5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ev6</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>44569.29166666666</v>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>44569.29513888889</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>44569.29861111111</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>44569.30208333334</v>
       </c>
+      <c r="B5" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>44569.30555555555</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>44569.30902777778</v>
       </c>
+      <c r="B7" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>44569.3125</v>
       </c>
+      <c r="B8" t="n">
+        <v>0.7083333333333331</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>44569.31597222222</v>
       </c>
+      <c r="B9" t="n">
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7083333333333331</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5416666666666666</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>44569.31944444445</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.7916666666666664</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7083333333333331</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5833333333333333</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>44569.32291666666</v>
       </c>
+      <c r="B11" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7916666666666664</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7083333333333331</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6249999999999999</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>44569.32638888889</v>
       </c>
+      <c r="B12" t="n">
+        <v>0.8749999999999997</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7916666666666664</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7083333333333331</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6666666666666665</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>44569.32986111111</v>
       </c>
+      <c r="B13" t="n">
+        <v>0.9166666666666663</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8749999999999997</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7916666666666664</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7083333333333331</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>44569.33333333334</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.9583333333333329</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9166666666666663</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8749999999999997</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7916666666666664</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7499999999999998</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>44569.33680555555</v>
       </c>
+      <c r="B15" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9583333333333329</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9166666666666663</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8749999999999997</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7916666666666664</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>44569.34027777778</v>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9583333333333329</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9166666666666663</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8749999999999997</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.833333333333333</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>44569.34375</v>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9583333333333329</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9166666666666663</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8749999999999997</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>44569.34722222222</v>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9583333333333329</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9166666666666663</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>44569.35069444445</v>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9583333333333329</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>44569.35416666666</v>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0.9999999999999996</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>44569.35763888889</v>
       </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>44569.36111111111</v>
       </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>44569.36458333334</v>
       </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>44569.36805555555</v>
       </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>44569.37152777778</v>
       </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>44569.375</v>
       </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>44569.37847222222</v>
       </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>44569.38194444445</v>
       </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>44569.38541666666</v>
       </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>44569.38888888889</v>
       </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>44569.39236111111</v>
       </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>44569.39583333334</v>
       </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>44569.39930555555</v>
       </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>44569.40277777778</v>
       </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>44569.40625</v>
       </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>44569.40972222222</v>
       </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>44569.41319444445</v>
       </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>44569.41666666666</v>
       </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>44569.42013888889</v>
       </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>44569.42361111111</v>
       </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>44569.42708333334</v>
       </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>44569.43055555555</v>
       </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>44569.43402777778</v>
       </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>44569.4375</v>
       </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>44569.44097222222</v>
       </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>44569.44444444445</v>
       </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>44569.44791666666</v>
       </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>44569.45138888889</v>
       </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>44569.45486111111</v>
       </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>44569.45833333334</v>
       </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>44569.46180555555</v>
       </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>44569.46527777778</v>
       </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>44569.46875</v>
       </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>44569.47222222222</v>
       </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>44569.47569444445</v>
       </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>44569.47916666666</v>
       </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>44569.48263888889</v>
       </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>44569.48611111111</v>
       </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>44569.48958333334</v>
       </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>44569.49305555555</v>
       </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>44569.49652777778</v>
       </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>44569.5</v>
       </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -758,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,310 +1320,852 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ev1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ev2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ev3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ev4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ev5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ev6</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>44569.29166666666</v>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>44569.29513888889</v>
       </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>44569.29861111111</v>
       </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>44569.30208333334</v>
       </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>44569.30555555555</v>
       </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>44569.30902777778</v>
       </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>44569.3125</v>
       </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>44569.31597222222</v>
       </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>44569.31944444445</v>
       </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>44569.32291666666</v>
       </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>44569.32638888889</v>
       </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>44569.32986111111</v>
       </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>44569.33333333334</v>
       </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>44569.33680555555</v>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>44569.34027777778</v>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>44569.34375</v>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>44569.34722222222</v>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>44569.35069444445</v>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>44569.35416666666</v>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>44569.35763888889</v>
       </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>44569.36111111111</v>
       </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>44569.36458333334</v>
       </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>44569.36805555555</v>
       </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>44569.37152777778</v>
       </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>44569.375</v>
       </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>44569.37847222222</v>
       </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>44569.38194444445</v>
       </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>44569.38541666666</v>
       </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>44569.38888888889</v>
       </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>44569.39236111111</v>
       </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>44569.39583333334</v>
       </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>44569.39930555555</v>
       </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>44569.40277777778</v>
       </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>44569.40625</v>
       </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>44569.40972222222</v>
       </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>44569.41319444445</v>
       </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>44569.41666666666</v>
       </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>44569.42013888889</v>
       </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>44569.42361111111</v>
       </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>44569.42708333334</v>
       </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>44569.43055555555</v>
       </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>44569.43402777778</v>
       </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>44569.4375</v>
       </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>44569.44097222222</v>
       </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>44569.44444444445</v>
       </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>44569.44791666666</v>
       </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>44569.45138888889</v>
       </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>44569.45486111111</v>
       </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>44569.45833333334</v>
       </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>44569.46180555555</v>
       </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>44569.46527777778</v>
       </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>44569.46875</v>
       </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>44569.47222222222</v>
       </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>44569.47569444445</v>
       </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>44569.47916666666</v>
       </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>44569.48263888889</v>
       </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>44569.48611111111</v>
       </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>44569.48958333334</v>
       </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>44569.49305555555</v>
       </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>44569.49652777778</v>
       </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>44569.5</v>
       </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1082,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,310 +2186,852 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ev1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ev2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ev3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ev4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ev5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ev6</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>44569.29166666666</v>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>44569.29513888889</v>
       </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>44569.29861111111</v>
       </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>44569.30208333334</v>
       </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>44569.30555555555</v>
       </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>44569.30902777778</v>
       </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>44569.3125</v>
       </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>44569.31597222222</v>
       </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>44569.31944444445</v>
       </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>44569.32291666666</v>
       </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>44569.32638888889</v>
       </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>44569.32986111111</v>
       </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>44569.33333333334</v>
       </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>44569.33680555555</v>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>44569.34027777778</v>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>44569.34375</v>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>44569.34722222222</v>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>44569.35069444445</v>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>44569.35416666666</v>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>44569.35763888889</v>
       </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>44569.36111111111</v>
       </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>44569.36458333334</v>
       </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>44569.36805555555</v>
       </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>44569.37152777778</v>
       </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>44569.375</v>
       </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>44569.37847222222</v>
       </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>44569.38194444445</v>
       </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>44569.38541666666</v>
       </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>44569.38888888889</v>
       </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>44569.39236111111</v>
       </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>44569.39583333334</v>
       </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>44569.39930555555</v>
       </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>44569.40277777778</v>
       </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>44569.40625</v>
       </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>44569.40972222222</v>
       </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>44569.41319444445</v>
       </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>44569.41666666666</v>
       </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>44569.42013888889</v>
       </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>44569.42361111111</v>
       </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>44569.42708333334</v>
       </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>44569.43055555555</v>
       </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>44569.43402777778</v>
       </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>44569.4375</v>
       </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>44569.44097222222</v>
       </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>44569.44444444445</v>
       </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>44569.44791666666</v>
       </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>44569.45138888889</v>
       </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>44569.45486111111</v>
       </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>44569.45833333334</v>
       </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>44569.46180555555</v>
       </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>44569.46527777778</v>
       </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>44569.46875</v>
       </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>44569.47222222222</v>
       </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>44569.47569444445</v>
       </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>44569.47916666666</v>
       </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>44569.48263888889</v>
       </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>44569.48611111111</v>
       </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>44569.48958333334</v>
       </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>44569.49305555555</v>
       </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>44569.49652777778</v>
       </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>44569.5</v>
       </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1406,7 +3044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,8 +3053,68 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ev1</t>
+        </is>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ev2</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ev3</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ev4</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ev5</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ev6</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
